--- a/sheets/Coding Decoded Stack SDE Sheet.xlsx
+++ b/sheets/Coding Decoded Stack SDE Sheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\shad\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DF39D7-733E-4C00-94BA-E4D21018CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="530" yWindow="520" windowWidth="13120" windowHeight="5740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t xml:space="preserve">Questions marked with ** are most important for interviews perspective </t>
   </si>
@@ -191,13 +197,19 @@
   </si>
   <si>
     <t>minidum</t>
+  </si>
+  <si>
+    <t>r*</t>
+  </si>
+  <si>
+    <t>r**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -251,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,12 +303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -345,10 +351,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,6 +364,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,42 +569,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.36328125" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -608,11 +617,11 @@
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E4" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -625,11 +634,11 @@
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
@@ -640,11 +649,11 @@
       <c r="D6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E6" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -657,11 +666,11 @@
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
@@ -674,11 +683,11 @@
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -691,8 +700,11 @@
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E9" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -705,8 +717,11 @@
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E10" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -719,8 +734,11 @@
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E11" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -734,19 +752,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
@@ -759,8 +777,11 @@
       <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
@@ -773,9 +794,12 @@
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -787,9 +811,12 @@
       <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -801,9 +828,12 @@
       <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="13" t="s">
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -816,8 +846,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -830,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -844,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>40</v>
       </c>
@@ -858,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -872,8 +902,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -886,8 +916,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -900,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13">
+    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
@@ -914,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>50</v>
       </c>
@@ -928,8 +958,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -942,8 +972,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -958,29 +988,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C15" r:id="rId9"/>
-    <hyperlink ref="C16" r:id="rId10"/>
-    <hyperlink ref="C17" r:id="rId11"/>
-    <hyperlink ref="C18" r:id="rId12"/>
-    <hyperlink ref="C19" r:id="rId13"/>
-    <hyperlink ref="C20" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C22" r:id="rId16"/>
-    <hyperlink ref="C23" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19"/>
-    <hyperlink ref="C26" r:id="rId20"/>
-    <hyperlink ref="C27" r:id="rId21"/>
-    <hyperlink ref="C28" r:id="rId22"/>
-    <hyperlink ref="C29" r:id="rId23"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
